--- a/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-12023.xlsx
+++ b/format/procesosPenales/downloadReportProcesosPenales/ProcesosPenalesAcumulado-41-12023-12023.xlsx
@@ -4060,9 +4060,7 @@
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
-        <v>4</v>
-      </c>
+      <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>
@@ -5470,14 +5468,18 @@
       <c r="H4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="30.95" s="3" customFormat="1">
-      <c r="B5" s="75"/>
+      <c r="B5" s="75" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
